--- a/results/mp/logistic/corona/confidence/210/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,43 +49,43 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>good</t>
   </si>
   <si>
     <t>confidence</t>
@@ -94,15 +94,15 @@
     <t>safe</t>
   </si>
   <si>
-    <t>good</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -112,22 +112,19 @@
     <t>relief</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
   </si>
   <si>
     <t>share</t>
@@ -499,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>18</v>
@@ -560,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -610,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3915343915343915</v>
+        <v>0.3862433862433862</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +625,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3236434108527132</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C5">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D5">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,69 +675,45 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.925</v>
+      </c>
+      <c r="L5">
+        <v>111</v>
+      </c>
+      <c r="M5">
+        <v>111</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>0.8983050847457628</v>
-      </c>
-      <c r="L5">
-        <v>53</v>
-      </c>
-      <c r="M5">
-        <v>53</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.1812080536912752</v>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>122</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,21 +725,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -778,21 +751,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -804,21 +777,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.825065274151436</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -830,21 +803,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.8207547169811321</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -856,21 +829,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -882,21 +855,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.8048780487804879</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L12">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -908,21 +881,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -934,21 +907,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.75625</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -960,21 +933,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.7676056338028169</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -986,21 +959,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.7625</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L16">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1012,21 +985,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1038,21 +1011,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>0.7</v>
+      </c>
+      <c r="L18">
         <v>28</v>
       </c>
-      <c r="K18">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L18">
-        <v>35</v>
-      </c>
       <c r="M18">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1069,16 +1042,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6976744186046512</v>
+        <v>0.6875</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1090,21 +1063,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6825396825396826</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1116,21 +1089,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1142,21 +1115,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22">
+        <v>0.64</v>
+      </c>
+      <c r="L22">
         <v>32</v>
       </c>
-      <c r="K22">
-        <v>0.625</v>
-      </c>
-      <c r="L22">
-        <v>25</v>
-      </c>
       <c r="M22">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1168,21 +1141,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.6147058823529412</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L23">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M23">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1194,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5538461538461539</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1220,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5531914893617021</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L25">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1246,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5491525423728814</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L26">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="M26">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1272,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5481171548117155</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L27">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="M27">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1298,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5142857142857142</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1324,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4606741573033708</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1350,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
